--- a/acs/sequence_guide.xlsx
+++ b/acs/sequence_guide.xlsx
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/acs/sequence_guide.xlsx
+++ b/acs/sequence_guide.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="1160" windowWidth="16680" windowHeight="15580" tabRatio="500"/>
+    <workbookView xWindow="11340" yWindow="1140" windowWidth="16680" windowHeight="15580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="42">
   <si>
     <t>Sequence</t>
   </si>
@@ -132,6 +132,27 @@
   </si>
   <si>
     <t>Ending Sequence</t>
+  </si>
+  <si>
+    <t>Demographics</t>
+  </si>
+  <si>
+    <t>Residence</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Household</t>
+  </si>
+  <si>
+    <t>Employment</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
@@ -479,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G167"/>
+  <dimension ref="A1:K167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -490,9 +511,12 @@
     <col min="5" max="5" width="31.83203125" customWidth="1"/>
     <col min="6" max="6" width="17.83203125" customWidth="1"/>
     <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,8 +532,17 @@
       <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -525,8 +558,17 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -542,8 +584,17 @@
       <c r="G3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -559,8 +610,17 @@
       <c r="G4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4">
+        <v>19</v>
+      </c>
+      <c r="K4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -576,8 +636,17 @@
       <c r="G5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5">
+        <v>29</v>
+      </c>
+      <c r="K5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -593,8 +662,17 @@
       <c r="G6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6">
+        <v>45</v>
+      </c>
+      <c r="K6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -610,8 +688,17 @@
       <c r="G7">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7">
+        <v>62</v>
+      </c>
+      <c r="K7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -627,8 +714,17 @@
       <c r="G8">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8">
+        <v>92</v>
+      </c>
+      <c r="K8">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -644,8 +740,17 @@
       <c r="G9">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9">
+        <v>139</v>
+      </c>
+      <c r="K9">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -661,8 +766,17 @@
       <c r="G10">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10">
+        <v>162</v>
+      </c>
+      <c r="K10">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -679,7 +793,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -696,7 +810,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -713,7 +827,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -730,7 +844,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -747,7 +861,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
